--- a/Problems2_Artemiy.xlsx
+++ b/Problems2_Artemiy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артемий Зарифьян\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8786F-29A8-4D44-9B2E-7A1D98EA3764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F9B2E-2BCA-472B-8AB3-C4AD658C42BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -234,58 +234,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>22793</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7046A3-533B-C0D3-C267-CF350FDF6D7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7429501"/>
-          <a:ext cx="6667500" cy="2880292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>122191</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -302,7 +258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -323,13 +279,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>77733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -346,7 +302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -367,13 +323,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>27804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -390,7 +346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -411,13 +367,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>3120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -434,7 +390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -455,13 +411,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>148234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -478,7 +434,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -487,50 +443,6 @@
         <a:xfrm>
           <a:off x="619125" y="21364576"/>
           <a:ext cx="6353175" cy="4310658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>151483</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58FE103-B11E-967C-02BF-F64946D094E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="26098501"/>
-          <a:ext cx="5429250" cy="3008982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -566,7 +478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -575,6 +487,94 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="7991475" cy="2034965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>458291</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>48137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5383A26-72BF-9C10-E826-3CBF6AF2FA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="7429500"/>
+          <a:ext cx="7821116" cy="3667637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>467496</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>153321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6302A4C2-FC9A-F649-311F-4D0F9123B31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="27079575"/>
+          <a:ext cx="5525271" cy="6601746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,150 +966,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>7</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>8</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>9</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="4" t="s">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>10</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B189" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B184:F184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/Problems2_Artemiy.xlsx
+++ b/Problems2_Artemiy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артемий Зарифьян\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F9B2E-2BCA-472B-8AB3-C4AD658C42BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9034E8F-70BC-4B98-BE33-EE4DD60C7E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Приведите пример супертипа сущности, не имеющего собственных экземпляров. </t>
   </si>
@@ -91,23 +91,20 @@
     <t>self.возраст &lt;= 30</t>
   </si>
   <si>
-    <t>context Поездка inv:</t>
-  </si>
-  <si>
-    <t>self.водитель -&gt; select (возраст &lt; 18) -&gt; size() = 0 and</t>
-  </si>
-  <si>
-    <t>self.водитель.категорияПрав = self.ТС.категорияТС and</t>
-  </si>
-  <si>
-    <t>self.ТС -&gt; select (возраст &gt; 30) -&gt; size() = 0</t>
+    <t>context Водитель</t>
+  </si>
+  <si>
+    <t>inv КатегорияПравСоответствуетКатегорииТранспортногоСредства:</t>
+  </si>
+  <si>
+    <t>self.категория_прав = self.транспортное_средство.категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +129,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1301FF"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,10 +157,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,9 +171,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{952B45DD-B9F6-42A9-AF8C-18D599E27B34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,50 +375,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>3120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29630EE4-72C9-1E75-BBB9-B156029CD87B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486401" y="24003000"/>
-          <a:ext cx="4781550" cy="2289120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>116</xdr:row>
@@ -434,7 +400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -478,7 +444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -522,7 +488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -566,7 +532,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -575,6 +541,50 @@
         <a:xfrm>
           <a:off x="1038225" y="27079575"/>
           <a:ext cx="5525271" cy="6601746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601162</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>19474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76937E9-3711-04D1-663B-0E881DD2C341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="36414075"/>
+          <a:ext cx="7792537" cy="3038899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,7 +897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -895,20 +905,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="V191" sqref="V191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -916,10 +926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2</v>
       </c>
@@ -927,25 +937,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -953,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -961,12 +971,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>5</v>
       </c>
@@ -974,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -982,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>7</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>8</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>9</v>
       </c>
@@ -1006,12 +1016,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="B181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="B183" s="3" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="B184" s="3" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1039,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="B186" s="3" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1048,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="B187" s="4" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1057,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>10</v>
       </c>
@@ -1055,50 +1065,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="B190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>21</v>
-      </c>
+    <row r="192" spans="1:7">
+      <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="193" spans="2:7">
+      <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
-        <v>23</v>
-      </c>
+    <row r="194" spans="2:7">
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="195" spans="2:7">
+      <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Problems2_Artemiy.xlsx
+++ b/Problems2_Artemiy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артемий Зарифьян\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9034E8F-70BC-4B98-BE33-EE4DD60C7E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD8DC5-C7F7-4550-891A-F0D6654AC2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
   </bookViews>
@@ -165,13 +165,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -245,13 +245,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>122191</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -289,13 +289,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>77733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -333,13 +333,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>27804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -377,13 +377,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>148234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -465,13 +465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>458291</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>48137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -509,13 +509,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>467496</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>153321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -553,13 +553,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>601162</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>19474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -585,6 +585,50 @@
         <a:xfrm>
           <a:off x="5000625" y="36414075"/>
           <a:ext cx="7792537" cy="3038899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>11637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416E64D4-8DA1-E3B4-435C-ACA3F30531F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704851" y="6896100"/>
+          <a:ext cx="6105524" cy="5307537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="V191" sqref="V191"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,170 +1007,170 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+    <row r="65" spans="1:2">
+      <c r="A65">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="86" spans="1:2">
+      <c r="A86">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
+    <row r="119" spans="1:2">
+      <c r="A119">
         <v>6</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
+    <row r="143" spans="1:2">
+      <c r="A143">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B143" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
+    <row r="167" spans="1:2">
+      <c r="A167">
         <v>8</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B167" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180">
+    <row r="207" spans="1:2">
+      <c r="A207">
         <v>9</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B207" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="B181" t="s">
+    <row r="208" spans="1:2">
+      <c r="B208" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="B183" s="3" t="s">
+    <row r="210" spans="1:7">
+      <c r="B210" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="B184" s="3" t="s">
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="B211" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="B186" s="3" t="s">
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="B213" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="B187" s="4" t="s">
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="B214" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189">
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
         <v>10</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B216" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="B190" t="s">
+    <row r="217" spans="1:7">
+      <c r="B217" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="2:7">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="2:7">
-      <c r="B196" s="5" t="s">
+    <row r="219" spans="1:7">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="B223" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="2:7">
-      <c r="B197" s="5" t="s">
+    <row r="224" spans="1:7">
+      <c r="B224" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="2:7">
-      <c r="B198" s="5" t="s">
+    <row r="225" spans="2:2">
+      <c r="B225" s="3" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B222:G222"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B211:F211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
